--- a/Modelo_Pedido.xlsx
+++ b/Modelo_Pedido.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Desktop\formulario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1180027C-0D44-4B25-B1D5-A6BB3A61034E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C640C679-37AF-4954-97E1-AA87D2A734D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" xr2:uid="{5A652F58-DF8E-46BE-9DBB-1F3AA7045651}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Pedido" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Pedido!$A$1:$F$96</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Pedido!$A$1:$F$92</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DATA:</t>
   </si>
@@ -85,9 +85,6 @@
   <si>
     <t>ITEM</t>
   </si>
-  <si>
-    <t>OBS.:</t>
-  </si>
 </sst>
 </file>
 
@@ -110,21 +107,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="26">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -216,19 +207,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -266,116 +244,6 @@
         <color indexed="64"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="medium">
@@ -469,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -489,15 +357,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -505,81 +396,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -972,10 +795,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519DEBFB-8826-4B53-A2FB-8FF5B4F0043B}">
   <sheetPr codeName="Planilha3"/>
-  <dimension ref="A1:F1048576"/>
+  <dimension ref="A1:F1048571"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A112" sqref="A112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -992,118 +815,118 @@
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="36"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="7"/>
       <c r="D3"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="11"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="9"/>
       <c r="D4"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="23"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="6"/>
       <c r="D7"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="10"/>
       <c r="D8"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="6"/>
       <c r="D9"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="6"/>
       <c r="D10"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="17"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="38" t="s">
+      <c r="B12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="38" t="s">
+      <c r="E12" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="39" t="s">
+      <c r="F12" s="17" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1112,848 +935,1010 @@
         <v>1</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="40"/>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>2</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="40"/>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>3</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="40"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>4</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="40"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>5</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="40"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>6</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="40"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>7</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="40"/>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>8</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="40"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>9</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="40"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>10</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="40"/>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>11</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="40"/>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>12</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="40"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>13</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="40"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>14</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="40"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>15</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="40"/>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>16</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="40"/>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>17</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="40"/>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>18</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="40"/>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>19</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="40"/>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>20</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="40"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>21</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="40"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>22</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="40"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>23</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="40"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>24</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="40"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>25</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="40"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>26</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="40"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>27</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="40"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>28</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="40"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>29</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="40"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>30</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="40"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>31</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="40"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>32</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="40"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>33</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="40"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>34</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="40"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>35</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="40"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>36</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="40"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>37</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="40"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>38</v>
       </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="33"/>
-      <c r="D50" s="33"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="40"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>39</v>
       </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="33"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="40"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>40</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="33"/>
-      <c r="D52" s="33"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="40"/>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>41</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="33"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="40"/>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>42</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="40"/>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>43</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="33"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="40"/>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>44</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="40"/>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>45</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="40"/>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>46</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="33"/>
-      <c r="D58" s="33"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="40"/>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>47</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="40"/>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>48</v>
       </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="33"/>
-      <c r="D60" s="33"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="40"/>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>49</v>
       </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="40"/>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>50</v>
       </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="40"/>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>51</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="33"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="40"/>
+      <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>52</v>
       </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="33"/>
-      <c r="D64" s="33"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="40"/>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>53</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="33"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="40"/>
+      <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>54</v>
       </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="33"/>
-      <c r="D66" s="33"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="40"/>
+      <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>55</v>
       </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="33"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="40"/>
+      <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>56</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="33"/>
-      <c r="D68" s="33"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="40"/>
+      <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>57</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="33"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="40"/>
+      <c r="F69" s="18"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>58</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="33"/>
-      <c r="D70" s="33"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="40"/>
+      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>59</v>
       </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="33"/>
-      <c r="D71" s="33"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="40"/>
+      <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>60</v>
       </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="33"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="40"/>
+      <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>61</v>
       </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="33"/>
-      <c r="D73" s="33"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="40"/>
+      <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>62</v>
       </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="33"/>
-      <c r="D74" s="33"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="40"/>
+      <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>63</v>
       </c>
       <c r="B75" s="1"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="33"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="40"/>
+      <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>64</v>
       </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="33"/>
-      <c r="D76" s="33"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="40"/>
+      <c r="F76" s="18"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>65</v>
       </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="33"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="40"/>
+      <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>66</v>
       </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="33"/>
-      <c r="D78" s="33"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="40"/>
+      <c r="F78" s="18"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>67</v>
       </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="33"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="40"/>
+      <c r="F79" s="18"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>68</v>
       </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="40"/>
+      <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>69</v>
       </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="33"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="40"/>
+      <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>70</v>
       </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="33"/>
-      <c r="D82" s="33"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="40"/>
+      <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>71</v>
       </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="40"/>
+      <c r="F83" s="18"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>72</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="40"/>
+      <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>73</v>
       </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="40"/>
+      <c r="F85" s="18"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>74</v>
       </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="40"/>
+      <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>75</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="40"/>
+      <c r="F87" s="18"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>76</v>
       </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="40"/>
+      <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>77</v>
       </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="40"/>
+      <c r="F89" s="18"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>78</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="11"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="40"/>
+      <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>79</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="40"/>
-    </row>
-    <row r="92" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="9">
+      <c r="F91" s="18"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="8">
         <v>80</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="41"/>
-    </row>
-    <row r="93" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="B93" s="22"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="22"/>
-      <c r="E93" s="22"/>
-      <c r="F93" s="23"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="18"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="8">
+        <v>81</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="18"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="24"/>
-      <c r="B94" s="25"/>
-      <c r="C94" s="25"/>
-      <c r="D94" s="25"/>
-      <c r="E94" s="25"/>
-      <c r="F94" s="26"/>
+      <c r="A94" s="8">
+        <v>82</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="18"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="27"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
-      <c r="E95" s="28"/>
-      <c r="F95" s="29"/>
-    </row>
-    <row r="96" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="30"/>
-      <c r="B96" s="31"/>
-      <c r="C96" s="31"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="32"/>
-    </row>
-    <row r="1048576" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C1048576" s="20"/>
-      <c r="D1048576" s="20"/>
+      <c r="A95" s="8">
+        <v>82</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="18"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="8">
+        <v>84</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="18"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="8">
+        <v>85</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="18"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="8">
+        <v>86</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="18"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="8">
+        <v>87</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="18"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="8">
+        <v>88</v>
+      </c>
+      <c r="B100" s="1"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="18"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="8">
+        <v>89</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="11"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="18"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="8">
+        <v>90</v>
+      </c>
+      <c r="B102" s="1"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="18"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="8">
+        <v>91</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="18"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="8">
+        <v>92</v>
+      </c>
+      <c r="B104" s="1"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="18"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="8">
+        <v>93</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="18"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="8">
+        <v>94</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="11"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="18"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="8">
+        <v>95</v>
+      </c>
+      <c r="B107" s="1"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="18"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="8">
+        <v>96</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="18"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="8">
+        <v>97</v>
+      </c>
+      <c r="B109" s="1"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="18"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="8">
+        <v>98</v>
+      </c>
+      <c r="B110" s="1"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="18"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="8">
+        <v>99</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="11"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="18"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="8">
+        <v>100</v>
+      </c>
+      <c r="B112" s="1"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="11"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="18"/>
+    </row>
+    <row r="1048571" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C1048571" s="21"/>
+      <c r="D1048571" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="11">
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A6:E6"/>
-    <mergeCell ref="C1048576:D1048576"/>
-    <mergeCell ref="A93:F93"/>
-    <mergeCell ref="A94:F94"/>
-    <mergeCell ref="A95:F95"/>
-    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="C1048571:D1048571"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>

--- a/Modelo_Pedido.xlsx
+++ b/Modelo_Pedido.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matheus\Desktop\formulario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C640C679-37AF-4954-97E1-AA87D2A734D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3A622B-33C1-4F06-94BB-0F17ACB4B16F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="769" xr2:uid="{5A652F58-DF8E-46BE-9DBB-1F3AA7045651}"/>
   </bookViews>
@@ -337,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -378,9 +378,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -404,6 +401,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,8 +800,8 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="A1:F1048571"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,95 +823,95 @@
       <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="23"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="7"/>
       <c r="D3"/>
       <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="23"/>
+      <c r="B4" s="22"/>
       <c r="C4" s="9"/>
       <c r="D4"/>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="23"/>
+      <c r="B5" s="22"/>
       <c r="C5"/>
       <c r="D5"/>
       <c r="F5" s="5"/>
     </row>
     <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
       <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="23"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="6"/>
       <c r="D7"/>
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="23"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="10"/>
       <c r="D8"/>
       <c r="F8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="23"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="6"/>
       <c r="D9"/>
       <c r="F9" s="5"/>
     </row>
     <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="23"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="6"/>
       <c r="D10"/>
       <c r="F10" s="5"/>
     </row>
     <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="26"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
@@ -935,1004 +938,1004 @@
         <v>1</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="11"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="11"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="18"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="8">
         <v>2</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="11"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="11"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="18"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="8">
         <v>3</v>
       </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="11"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="11"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="18"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="8">
         <v>4</v>
       </c>
       <c r="B16" s="1"/>
-      <c r="C16" s="11"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="11"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="18"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>5</v>
       </c>
       <c r="B17" s="1"/>
-      <c r="C17" s="11"/>
+      <c r="C17" s="26"/>
       <c r="D17" s="11"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="18"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8">
         <v>6</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="11"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="11"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="18"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8">
         <v>7</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="11"/>
+      <c r="C19" s="26"/>
       <c r="D19" s="11"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="18"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="8">
         <v>8</v>
       </c>
       <c r="B20" s="1"/>
-      <c r="C20" s="11"/>
+      <c r="C20" s="26"/>
       <c r="D20" s="11"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="18"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="8">
         <v>9</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="11"/>
+      <c r="C21" s="26"/>
       <c r="D21" s="11"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="18"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>10</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="11"/>
+      <c r="C22" s="26"/>
       <c r="D22" s="11"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="18"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>11</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="11"/>
+      <c r="C23" s="26"/>
       <c r="D23" s="11"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="18"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>12</v>
       </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="11"/>
+      <c r="C24" s="26"/>
       <c r="D24" s="11"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="18"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>13</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="11"/>
+      <c r="C25" s="26"/>
       <c r="D25" s="11"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="18"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>14</v>
       </c>
       <c r="B26" s="1"/>
-      <c r="C26" s="11"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="11"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="18"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>15</v>
       </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="11"/>
+      <c r="C27" s="26"/>
       <c r="D27" s="11"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="18"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>16</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="11"/>
+      <c r="C28" s="26"/>
       <c r="D28" s="11"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="18"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>17</v>
       </c>
       <c r="B29" s="1"/>
-      <c r="C29" s="11"/>
+      <c r="C29" s="26"/>
       <c r="D29" s="11"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="18"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>18</v>
       </c>
       <c r="B30" s="1"/>
-      <c r="C30" s="11"/>
+      <c r="C30" s="26"/>
       <c r="D30" s="11"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="18"/>
+      <c r="F30" s="27"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>19</v>
       </c>
       <c r="B31" s="1"/>
-      <c r="C31" s="11"/>
+      <c r="C31" s="26"/>
       <c r="D31" s="11"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="18"/>
+      <c r="F31" s="27"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>20</v>
       </c>
       <c r="B32" s="1"/>
-      <c r="C32" s="11"/>
+      <c r="C32" s="26"/>
       <c r="D32" s="11"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="18"/>
+      <c r="F32" s="27"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>21</v>
       </c>
       <c r="B33" s="1"/>
-      <c r="C33" s="11"/>
+      <c r="C33" s="26"/>
       <c r="D33" s="11"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="18"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>22</v>
       </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="11"/>
+      <c r="C34" s="26"/>
       <c r="D34" s="11"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="18"/>
+      <c r="F34" s="27"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>23</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="11"/>
+      <c r="C35" s="26"/>
       <c r="D35" s="11"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="18"/>
+      <c r="F35" s="27"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>24</v>
       </c>
       <c r="B36" s="1"/>
-      <c r="C36" s="11"/>
+      <c r="C36" s="26"/>
       <c r="D36" s="11"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="18"/>
+      <c r="F36" s="27"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>25</v>
       </c>
       <c r="B37" s="1"/>
-      <c r="C37" s="11"/>
+      <c r="C37" s="26"/>
       <c r="D37" s="11"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="18"/>
+      <c r="F37" s="27"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>26</v>
       </c>
       <c r="B38" s="1"/>
-      <c r="C38" s="11"/>
+      <c r="C38" s="26"/>
       <c r="D38" s="11"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="18"/>
+      <c r="F38" s="27"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>27</v>
       </c>
       <c r="B39" s="1"/>
-      <c r="C39" s="11"/>
+      <c r="C39" s="26"/>
       <c r="D39" s="11"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="18"/>
+      <c r="F39" s="27"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>28</v>
       </c>
       <c r="B40" s="1"/>
-      <c r="C40" s="11"/>
+      <c r="C40" s="26"/>
       <c r="D40" s="11"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="18"/>
+      <c r="F40" s="27"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>29</v>
       </c>
       <c r="B41" s="1"/>
-      <c r="C41" s="11"/>
+      <c r="C41" s="26"/>
       <c r="D41" s="11"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="18"/>
+      <c r="F41" s="27"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>30</v>
       </c>
       <c r="B42" s="1"/>
-      <c r="C42" s="11"/>
+      <c r="C42" s="26"/>
       <c r="D42" s="11"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="18"/>
+      <c r="F42" s="27"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>31</v>
       </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="11"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="11"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="18"/>
+      <c r="F43" s="27"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>32</v>
       </c>
       <c r="B44" s="1"/>
-      <c r="C44" s="11"/>
+      <c r="C44" s="26"/>
       <c r="D44" s="11"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="18"/>
+      <c r="F44" s="27"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>33</v>
       </c>
       <c r="B45" s="1"/>
-      <c r="C45" s="11"/>
+      <c r="C45" s="26"/>
       <c r="D45" s="11"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="18"/>
+      <c r="F45" s="27"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>34</v>
       </c>
       <c r="B46" s="1"/>
-      <c r="C46" s="11"/>
+      <c r="C46" s="26"/>
       <c r="D46" s="11"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="18"/>
+      <c r="F46" s="27"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>35</v>
       </c>
       <c r="B47" s="1"/>
-      <c r="C47" s="11"/>
+      <c r="C47" s="26"/>
       <c r="D47" s="11"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="18"/>
+      <c r="F47" s="27"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>36</v>
       </c>
       <c r="B48" s="1"/>
-      <c r="C48" s="11"/>
+      <c r="C48" s="26"/>
       <c r="D48" s="11"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="18"/>
+      <c r="F48" s="27"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>37</v>
       </c>
       <c r="B49" s="1"/>
-      <c r="C49" s="11"/>
+      <c r="C49" s="26"/>
       <c r="D49" s="11"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="18"/>
+      <c r="F49" s="27"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>38</v>
       </c>
       <c r="B50" s="1"/>
-      <c r="C50" s="11"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="11"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="18"/>
+      <c r="F50" s="27"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>39</v>
       </c>
       <c r="B51" s="1"/>
-      <c r="C51" s="11"/>
+      <c r="C51" s="26"/>
       <c r="D51" s="11"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="18"/>
+      <c r="F51" s="27"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>40</v>
       </c>
       <c r="B52" s="1"/>
-      <c r="C52" s="11"/>
+      <c r="C52" s="26"/>
       <c r="D52" s="11"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="18"/>
+      <c r="F52" s="27"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="8">
         <v>41</v>
       </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="11"/>
+      <c r="C53" s="26"/>
       <c r="D53" s="11"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="18"/>
+      <c r="F53" s="27"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="8">
         <v>42</v>
       </c>
       <c r="B54" s="1"/>
-      <c r="C54" s="11"/>
+      <c r="C54" s="26"/>
       <c r="D54" s="11"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="18"/>
+      <c r="F54" s="27"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="8">
         <v>43</v>
       </c>
       <c r="B55" s="1"/>
-      <c r="C55" s="11"/>
+      <c r="C55" s="26"/>
       <c r="D55" s="11"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="18"/>
+      <c r="F55" s="27"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="8">
         <v>44</v>
       </c>
       <c r="B56" s="1"/>
-      <c r="C56" s="11"/>
+      <c r="C56" s="26"/>
       <c r="D56" s="11"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="18"/>
+      <c r="F56" s="27"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="8">
         <v>45</v>
       </c>
       <c r="B57" s="1"/>
-      <c r="C57" s="11"/>
+      <c r="C57" s="26"/>
       <c r="D57" s="11"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="18"/>
+      <c r="F57" s="27"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="8">
         <v>46</v>
       </c>
       <c r="B58" s="1"/>
-      <c r="C58" s="11"/>
+      <c r="C58" s="26"/>
       <c r="D58" s="11"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="18"/>
+      <c r="F58" s="27"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="8">
         <v>47</v>
       </c>
       <c r="B59" s="1"/>
-      <c r="C59" s="11"/>
+      <c r="C59" s="26"/>
       <c r="D59" s="11"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="18"/>
+      <c r="F59" s="27"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="8">
         <v>48</v>
       </c>
       <c r="B60" s="1"/>
-      <c r="C60" s="11"/>
+      <c r="C60" s="26"/>
       <c r="D60" s="11"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="18"/>
+      <c r="F60" s="27"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="8">
         <v>49</v>
       </c>
       <c r="B61" s="1"/>
-      <c r="C61" s="11"/>
+      <c r="C61" s="26"/>
       <c r="D61" s="11"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="18"/>
+      <c r="F61" s="27"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="8">
         <v>50</v>
       </c>
       <c r="B62" s="1"/>
-      <c r="C62" s="11"/>
+      <c r="C62" s="26"/>
       <c r="D62" s="11"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="18"/>
+      <c r="F62" s="27"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="8">
         <v>51</v>
       </c>
       <c r="B63" s="1"/>
-      <c r="C63" s="11"/>
+      <c r="C63" s="26"/>
       <c r="D63" s="11"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="18"/>
+      <c r="F63" s="27"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="8">
         <v>52</v>
       </c>
       <c r="B64" s="1"/>
-      <c r="C64" s="11"/>
+      <c r="C64" s="26"/>
       <c r="D64" s="11"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="18"/>
+      <c r="F64" s="27"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="8">
         <v>53</v>
       </c>
       <c r="B65" s="1"/>
-      <c r="C65" s="11"/>
+      <c r="C65" s="26"/>
       <c r="D65" s="11"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="18"/>
+      <c r="F65" s="27"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="8">
         <v>54</v>
       </c>
       <c r="B66" s="1"/>
-      <c r="C66" s="11"/>
+      <c r="C66" s="26"/>
       <c r="D66" s="11"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="18"/>
+      <c r="F66" s="27"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="8">
         <v>55</v>
       </c>
       <c r="B67" s="1"/>
-      <c r="C67" s="11"/>
+      <c r="C67" s="26"/>
       <c r="D67" s="11"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="18"/>
+      <c r="F67" s="27"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="8">
         <v>56</v>
       </c>
       <c r="B68" s="1"/>
-      <c r="C68" s="11"/>
+      <c r="C68" s="26"/>
       <c r="D68" s="11"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="18"/>
+      <c r="F68" s="27"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="8">
         <v>57</v>
       </c>
       <c r="B69" s="1"/>
-      <c r="C69" s="11"/>
+      <c r="C69" s="26"/>
       <c r="D69" s="11"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="18"/>
+      <c r="F69" s="27"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="8">
         <v>58</v>
       </c>
       <c r="B70" s="1"/>
-      <c r="C70" s="11"/>
+      <c r="C70" s="26"/>
       <c r="D70" s="11"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="18"/>
+      <c r="F70" s="27"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="8">
         <v>59</v>
       </c>
       <c r="B71" s="1"/>
-      <c r="C71" s="11"/>
+      <c r="C71" s="26"/>
       <c r="D71" s="11"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="18"/>
+      <c r="F71" s="27"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="8">
         <v>60</v>
       </c>
       <c r="B72" s="1"/>
-      <c r="C72" s="11"/>
+      <c r="C72" s="26"/>
       <c r="D72" s="11"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="18"/>
+      <c r="F72" s="27"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="8">
         <v>61</v>
       </c>
       <c r="B73" s="1"/>
-      <c r="C73" s="11"/>
+      <c r="C73" s="26"/>
       <c r="D73" s="11"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="18"/>
+      <c r="F73" s="27"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="8">
         <v>62</v>
       </c>
       <c r="B74" s="1"/>
-      <c r="C74" s="11"/>
+      <c r="C74" s="26"/>
       <c r="D74" s="11"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="18"/>
+      <c r="F74" s="27"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="8">
         <v>63</v>
       </c>
       <c r="B75" s="1"/>
-      <c r="C75" s="11"/>
+      <c r="C75" s="26"/>
       <c r="D75" s="11"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="18"/>
+      <c r="F75" s="27"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="8">
         <v>64</v>
       </c>
       <c r="B76" s="1"/>
-      <c r="C76" s="11"/>
+      <c r="C76" s="26"/>
       <c r="D76" s="11"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="18"/>
+      <c r="F76" s="27"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="8">
         <v>65</v>
       </c>
       <c r="B77" s="1"/>
-      <c r="C77" s="11"/>
+      <c r="C77" s="26"/>
       <c r="D77" s="11"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="18"/>
+      <c r="F77" s="27"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="8">
         <v>66</v>
       </c>
       <c r="B78" s="1"/>
-      <c r="C78" s="11"/>
+      <c r="C78" s="26"/>
       <c r="D78" s="11"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="18"/>
+      <c r="F78" s="27"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="8">
         <v>67</v>
       </c>
       <c r="B79" s="1"/>
-      <c r="C79" s="11"/>
+      <c r="C79" s="26"/>
       <c r="D79" s="11"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="18"/>
+      <c r="F79" s="27"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="8">
         <v>68</v>
       </c>
       <c r="B80" s="1"/>
-      <c r="C80" s="11"/>
+      <c r="C80" s="26"/>
       <c r="D80" s="11"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="18"/>
+      <c r="F80" s="27"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="8">
         <v>69</v>
       </c>
       <c r="B81" s="1"/>
-      <c r="C81" s="11"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="11"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="18"/>
+      <c r="F81" s="27"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="8">
         <v>70</v>
       </c>
       <c r="B82" s="1"/>
-      <c r="C82" s="11"/>
+      <c r="C82" s="26"/>
       <c r="D82" s="11"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="18"/>
+      <c r="F82" s="27"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="8">
         <v>71</v>
       </c>
       <c r="B83" s="1"/>
-      <c r="C83" s="11"/>
+      <c r="C83" s="26"/>
       <c r="D83" s="11"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="18"/>
+      <c r="F83" s="27"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="8">
         <v>72</v>
       </c>
       <c r="B84" s="1"/>
-      <c r="C84" s="11"/>
+      <c r="C84" s="26"/>
       <c r="D84" s="11"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="18"/>
+      <c r="F84" s="27"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="8">
         <v>73</v>
       </c>
       <c r="B85" s="1"/>
-      <c r="C85" s="11"/>
+      <c r="C85" s="26"/>
       <c r="D85" s="11"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="18"/>
+      <c r="F85" s="27"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="8">
         <v>74</v>
       </c>
       <c r="B86" s="1"/>
-      <c r="C86" s="11"/>
+      <c r="C86" s="26"/>
       <c r="D86" s="11"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="18"/>
+      <c r="F86" s="27"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="8">
         <v>75</v>
       </c>
       <c r="B87" s="1"/>
-      <c r="C87" s="11"/>
+      <c r="C87" s="26"/>
       <c r="D87" s="11"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="18"/>
+      <c r="F87" s="27"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="8">
         <v>76</v>
       </c>
       <c r="B88" s="1"/>
-      <c r="C88" s="11"/>
+      <c r="C88" s="26"/>
       <c r="D88" s="11"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="18"/>
+      <c r="F88" s="27"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="8">
         <v>77</v>
       </c>
       <c r="B89" s="1"/>
-      <c r="C89" s="11"/>
+      <c r="C89" s="26"/>
       <c r="D89" s="11"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="18"/>
+      <c r="F89" s="27"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="8">
         <v>78</v>
       </c>
       <c r="B90" s="1"/>
-      <c r="C90" s="11"/>
+      <c r="C90" s="26"/>
       <c r="D90" s="11"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="18"/>
+      <c r="F90" s="27"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="8">
         <v>79</v>
       </c>
       <c r="B91" s="1"/>
-      <c r="C91" s="11"/>
+      <c r="C91" s="26"/>
       <c r="D91" s="11"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="18"/>
+      <c r="F91" s="27"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="8">
         <v>80</v>
       </c>
       <c r="B92" s="1"/>
-      <c r="C92" s="11"/>
+      <c r="C92" s="26"/>
       <c r="D92" s="11"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="18"/>
+      <c r="F92" s="27"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="8">
         <v>81</v>
       </c>
       <c r="B93" s="1"/>
-      <c r="C93" s="11"/>
+      <c r="C93" s="26"/>
       <c r="D93" s="11"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="18"/>
+      <c r="F93" s="27"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="8">
         <v>82</v>
       </c>
       <c r="B94" s="1"/>
-      <c r="C94" s="11"/>
+      <c r="C94" s="26"/>
       <c r="D94" s="11"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="18"/>
+      <c r="F94" s="27"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="8">
         <v>82</v>
       </c>
       <c r="B95" s="1"/>
-      <c r="C95" s="11"/>
+      <c r="C95" s="26"/>
       <c r="D95" s="11"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="18"/>
+      <c r="F95" s="27"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="8">
         <v>84</v>
       </c>
       <c r="B96" s="1"/>
-      <c r="C96" s="11"/>
+      <c r="C96" s="26"/>
       <c r="D96" s="11"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="18"/>
+      <c r="F96" s="27"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="8">
         <v>85</v>
       </c>
       <c r="B97" s="1"/>
-      <c r="C97" s="11"/>
+      <c r="C97" s="26"/>
       <c r="D97" s="11"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="18"/>
+      <c r="F97" s="27"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="8">
         <v>86</v>
       </c>
       <c r="B98" s="1"/>
-      <c r="C98" s="11"/>
+      <c r="C98" s="26"/>
       <c r="D98" s="11"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="18"/>
+      <c r="F98" s="27"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="8">
         <v>87</v>
       </c>
       <c r="B99" s="1"/>
-      <c r="C99" s="11"/>
+      <c r="C99" s="26"/>
       <c r="D99" s="11"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="18"/>
+      <c r="F99" s="27"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="8">
         <v>88</v>
       </c>
       <c r="B100" s="1"/>
-      <c r="C100" s="11"/>
+      <c r="C100" s="26"/>
       <c r="D100" s="11"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="18"/>
+      <c r="F100" s="27"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="8">
         <v>89</v>
       </c>
       <c r="B101" s="1"/>
-      <c r="C101" s="11"/>
+      <c r="C101" s="26"/>
       <c r="D101" s="11"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="18"/>
+      <c r="F101" s="27"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="8">
         <v>90</v>
       </c>
       <c r="B102" s="1"/>
-      <c r="C102" s="11"/>
+      <c r="C102" s="26"/>
       <c r="D102" s="11"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="18"/>
+      <c r="F102" s="27"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="8">
         <v>91</v>
       </c>
       <c r="B103" s="1"/>
-      <c r="C103" s="11"/>
+      <c r="C103" s="26"/>
       <c r="D103" s="11"/>
       <c r="E103" s="1"/>
-      <c r="F103" s="18"/>
+      <c r="F103" s="27"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="8">
         <v>92</v>
       </c>
       <c r="B104" s="1"/>
-      <c r="C104" s="11"/>
+      <c r="C104" s="26"/>
       <c r="D104" s="11"/>
       <c r="E104" s="1"/>
-      <c r="F104" s="18"/>
+      <c r="F104" s="27"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="8">
         <v>93</v>
       </c>
       <c r="B105" s="1"/>
-      <c r="C105" s="11"/>
+      <c r="C105" s="26"/>
       <c r="D105" s="11"/>
       <c r="E105" s="1"/>
-      <c r="F105" s="18"/>
+      <c r="F105" s="27"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="8">
         <v>94</v>
       </c>
       <c r="B106" s="1"/>
-      <c r="C106" s="11"/>
+      <c r="C106" s="26"/>
       <c r="D106" s="11"/>
       <c r="E106" s="1"/>
-      <c r="F106" s="18"/>
+      <c r="F106" s="27"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="8">
         <v>95</v>
       </c>
       <c r="B107" s="1"/>
-      <c r="C107" s="11"/>
+      <c r="C107" s="26"/>
       <c r="D107" s="11"/>
       <c r="E107" s="1"/>
-      <c r="F107" s="18"/>
+      <c r="F107" s="27"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="8">
         <v>96</v>
       </c>
       <c r="B108" s="1"/>
-      <c r="C108" s="11"/>
+      <c r="C108" s="26"/>
       <c r="D108" s="11"/>
       <c r="E108" s="1"/>
-      <c r="F108" s="18"/>
+      <c r="F108" s="27"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="8">
         <v>97</v>
       </c>
       <c r="B109" s="1"/>
-      <c r="C109" s="11"/>
+      <c r="C109" s="26"/>
       <c r="D109" s="11"/>
       <c r="E109" s="1"/>
-      <c r="F109" s="18"/>
+      <c r="F109" s="27"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="8">
         <v>98</v>
       </c>
       <c r="B110" s="1"/>
-      <c r="C110" s="11"/>
+      <c r="C110" s="26"/>
       <c r="D110" s="11"/>
       <c r="E110" s="1"/>
-      <c r="F110" s="18"/>
+      <c r="F110" s="27"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="8">
         <v>99</v>
       </c>
       <c r="B111" s="1"/>
-      <c r="C111" s="11"/>
+      <c r="C111" s="26"/>
       <c r="D111" s="11"/>
       <c r="E111" s="1"/>
-      <c r="F111" s="18"/>
+      <c r="F111" s="27"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="8">
         <v>100</v>
       </c>
       <c r="B112" s="1"/>
-      <c r="C112" s="11"/>
+      <c r="C112" s="26"/>
       <c r="D112" s="11"/>
       <c r="E112" s="1"/>
-      <c r="F112" s="18"/>
+      <c r="F112" s="27"/>
     </row>
     <row r="1048571" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C1048571" s="21"/>
-      <c r="D1048571" s="21"/>
+      <c r="C1048571" s="20"/>
+      <c r="D1048571" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
